--- a/PythonResources/Data/Consumption/Sympheny/base_CE_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_CE_hea.xlsx
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>408.5577329431191</v>
+        <v>408.557732943119</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -775,7 +775,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>518.7730756809067</v>
+        <v>518.7730756809066</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>83.10249104521444</v>
+        <v>83.10249104521441</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>14.29812416950995</v>
+        <v>14.29812416950994</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>7.478008828471969</v>
+        <v>7.478008828471968</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>47.205802103195</v>
+        <v>47.20580210319499</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>86.23961136435707</v>
+        <v>86.23961136435705</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>220.7587491962528</v>
+        <v>220.7587491962527</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>451.9905971087956</v>
+        <v>451.9905971087955</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>353.8035345539548</v>
+        <v>353.8035345539547</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>353.4049872484792</v>
+        <v>353.4049872484791</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>324.7608100717966</v>
+        <v>324.7608100717965</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>196.7622185712084</v>
+        <v>196.7622185712083</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>145.8279579220326</v>
+        <v>145.8279579220325</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>352.0307478410922</v>
+        <v>352.0307478410921</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>416.812723503301</v>
+        <v>416.8127235033008</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>456.7834808750633</v>
+        <v>456.7834808750632</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>476.1778964650358</v>
+        <v>476.1778964650357</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>547.2958628333757</v>
+        <v>547.2958628333756</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>232.80484809835</v>
+        <v>232.8048480983499</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>82.59547228690953</v>
+        <v>82.59547228690951</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>93.01402462148411</v>
+        <v>93.0140246214841</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>96.09680136406986</v>
+        <v>96.09680136406985</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>51.95299609453535</v>
+        <v>51.95299609453534</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>0.6922352586732909</v>
+        <v>0.6922352586732907</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>3.272296698085837</v>
+        <v>3.272296698085836</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>52.3133855507772</v>
+        <v>52.31338555077719</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>337</v>
       </c>
       <c r="B337">
-        <v>324.6022586398808</v>
+        <v>324.6022586398807</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>511.2102602998352</v>
+        <v>511.2102602998351</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>357.1598133958084</v>
+        <v>357.1598133958082</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>811.1945516921629</v>
+        <v>811.1945516921628</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>707.3865331513168</v>
+        <v>707.3865331513166</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>378.6043781296324</v>
+        <v>378.6043781296323</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>249.036499653297</v>
+        <v>249.0364996532969</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>239.0440960546191</v>
+        <v>239.044096054619</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>313.5782156780111</v>
+        <v>313.578215678011</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>420.6371833294161</v>
+        <v>420.637183329416</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>635.4955333042999</v>
+        <v>635.4955333042998</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>477.0519515307394</v>
+        <v>477.0519515307393</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>539.8263026568063</v>
+        <v>539.8263026568062</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>511.8295194045266</v>
+        <v>511.8295194045265</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>795.039303756995</v>
+        <v>795.0393037569949</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>819.2721170455393</v>
+        <v>819.2721170455391</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>897.752496818714</v>
+        <v>897.7524968187139</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>451</v>
       </c>
       <c r="B451">
-        <v>761.9284308800749</v>
+        <v>761.9284308800748</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>700.2221185402014</v>
+        <v>700.2221185402013</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>275.0770630296161</v>
+        <v>275.077063029616</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>588.9377991888966</v>
+        <v>588.9377991888965</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>644.794970432063</v>
+        <v>644.7949704320629</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>681.3622059105396</v>
+        <v>681.3622059105394</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>761.1092973270163</v>
+        <v>761.1092973270162</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>309.8927008313254</v>
+        <v>309.8927008313253</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>689.1128798273929</v>
+        <v>689.1128798273928</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>944.3844951353138</v>
+        <v>944.3844951353137</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>963.8992163866569</v>
+        <v>963.8992163866568</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>865.2600038333693</v>
+        <v>865.2600038333691</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>520</v>
       </c>
       <c r="B520">
-        <v>935.6750100083759</v>
+        <v>935.6750100083758</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>522</v>
       </c>
       <c r="B522">
-        <v>835.69997966087</v>
+        <v>835.6999796608699</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>546</v>
       </c>
       <c r="B546">
-        <v>819.5423871573928</v>
+        <v>819.5423871573927</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>547</v>
       </c>
       <c r="B547">
-        <v>830.9255593700379</v>
+        <v>830.9255593700378</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>566</v>
       </c>
       <c r="B566">
-        <v>678.5488411678061</v>
+        <v>678.548841167806</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>569</v>
       </c>
       <c r="B569">
-        <v>808.7814047598255</v>
+        <v>808.7814047598253</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>714.4151679502202</v>
+        <v>714.4151679502201</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>581</v>
       </c>
       <c r="B581">
-        <v>718.2573292670705</v>
+        <v>718.2573292670704</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>583</v>
       </c>
       <c r="B583">
-        <v>910.0969420381684</v>
+        <v>910.0969420381683</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>456.3906777619455</v>
+        <v>456.3906777619454</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>591</v>
       </c>
       <c r="B591">
-        <v>450.4067239874543</v>
+        <v>450.4067239874542</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>296.7324337615493</v>
+        <v>296.7324337615492</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>612</v>
       </c>
       <c r="B612">
-        <v>488.5656575840045</v>
+        <v>488.5656575840043</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>630</v>
       </c>
       <c r="B630">
-        <v>858.1944713906984</v>
+        <v>858.1944713906983</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>643</v>
       </c>
       <c r="B643">
-        <v>573.6751284090757</v>
+        <v>573.6751284090756</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>647</v>
       </c>
       <c r="B647">
-        <v>675.414680866154</v>
+        <v>675.4146808661538</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>656</v>
       </c>
       <c r="B656">
-        <v>984.7207413993908</v>
+        <v>984.7207413993907</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>657</v>
       </c>
       <c r="B657">
-        <v>742.5218528419979</v>
+        <v>742.5218528419978</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>680.9455761219787</v>
+        <v>680.9455761219784</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>675</v>
       </c>
       <c r="B675">
-        <v>825.8988049149186</v>
+        <v>825.8988049149184</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>699</v>
       </c>
       <c r="B699">
-        <v>561.1252990057272</v>
+        <v>561.1252990057271</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>762.1980562356433</v>
+        <v>762.1980562356432</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>704</v>
       </c>
       <c r="B704">
-        <v>699.0309899177702</v>
+        <v>699.0309899177701</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>622.7588711138048</v>
+        <v>622.7588711138047</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>375.1573938013131</v>
+        <v>375.157393801313</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>362.022741140316</v>
+        <v>362.0227411403159</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>728</v>
       </c>
       <c r="B728">
-        <v>883.3720870936791</v>
+        <v>883.3720870936788</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>375.206043593731</v>
+        <v>375.2060435937309</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>738</v>
       </c>
       <c r="B738">
-        <v>274.3474919859725</v>
+        <v>274.3474919859724</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>752</v>
       </c>
       <c r="B752">
-        <v>860.1889956514119</v>
+        <v>860.1889956514118</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>624.80078496147</v>
+        <v>624.8007849614698</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>759</v>
       </c>
       <c r="B759">
-        <v>291.2192106893559</v>
+        <v>291.2192106893558</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>764</v>
       </c>
       <c r="B764">
-        <v>351.3973334052335</v>
+        <v>351.3973334052334</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>316.7464601414596</v>
+        <v>316.7464601414595</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>824.7816181155417</v>
+        <v>824.7816181155415</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>795</v>
       </c>
       <c r="B795">
-        <v>800.2402303303909</v>
+        <v>800.2402303303907</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>800</v>
       </c>
       <c r="B800">
-        <v>973.9433470236586</v>
+        <v>973.9433470236585</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>840.4688316019674</v>
+        <v>840.4688316019673</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>803</v>
       </c>
       <c r="B803">
-        <v>648.720363923893</v>
+        <v>648.7203639238929</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>809</v>
       </c>
       <c r="B809">
-        <v>820.7085168202262</v>
+        <v>820.7085168202261</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>705.8314102988681</v>
+        <v>705.8314102988679</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>818</v>
       </c>
       <c r="B818">
-        <v>855.9563171755455</v>
+        <v>855.9563171755453</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>822</v>
       </c>
       <c r="B822">
-        <v>956.1243348020101</v>
+        <v>956.1243348020099</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>661.8446711772255</v>
+        <v>661.8446711772253</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>839</v>
       </c>
       <c r="B839">
-        <v>893.9264544089901</v>
+        <v>893.9264544089899</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>987.4096681791086</v>
+        <v>987.4096681791085</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>543.1966196014117</v>
+        <v>543.1966196014116</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7303,7 +7303,7 @@
         <v>870</v>
       </c>
       <c r="B870">
-        <v>1252.936425271868</v>
+        <v>1252.936425271867</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>787.5560278558162</v>
+        <v>787.5560278558161</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>555.5275835530879</v>
+        <v>555.5275835530878</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>530.0245142200999</v>
+        <v>530.0245142200998</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>842.0267972434912</v>
+        <v>842.026797243491</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>527.5129815816575</v>
+        <v>527.5129815816574</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>600.0357253596128</v>
+        <v>600.0357253596127</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7887,7 +7887,7 @@
         <v>943</v>
       </c>
       <c r="B943">
-        <v>498.2948833899645</v>
+        <v>498.2948833899644</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>972</v>
       </c>
       <c r="B972">
-        <v>129.088077225391</v>
+        <v>129.0880772253909</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>976</v>
       </c>
       <c r="B976">
-        <v>97.32279840639694</v>
+        <v>97.32279840639693</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>987</v>
       </c>
       <c r="B987">
-        <v>152.9426676849909</v>
+        <v>152.9426676849908</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>86.49083185869756</v>
+        <v>86.49083185869755</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>1018</v>
       </c>
       <c r="B1018">
-        <v>520.7638486323254</v>
+        <v>520.7638486323253</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>326.5225480065015</v>
+        <v>326.5225480065014</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>362.4374366600218</v>
+        <v>362.4374366600217</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>754.7985986515216</v>
+        <v>754.7985986515215</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8655,7 +8655,7 @@
         <v>1039</v>
       </c>
       <c r="B1039">
-        <v>938.8217137504829</v>
+        <v>938.8217137504828</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>348.7156454801706</v>
+        <v>348.7156454801705</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>1057</v>
       </c>
       <c r="B1057">
-        <v>410.7775760797763</v>
+        <v>410.7775760797762</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>1058</v>
       </c>
       <c r="B1058">
-        <v>421.5592844611978</v>
+        <v>421.5592844611976</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>65.7355614156738</v>
+        <v>65.73556141567379</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>1070</v>
       </c>
       <c r="B1070">
-        <v>71.32081548774934</v>
+        <v>71.32081548774933</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>174.2760998809546</v>
+        <v>174.2760998809545</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>184.1802304827877</v>
+        <v>184.1802304827876</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>620.3428520852884</v>
+        <v>620.3428520852883</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>1091</v>
       </c>
       <c r="B1091">
-        <v>377.5148865434089</v>
+        <v>377.5148865434088</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>729.7634154733303</v>
+        <v>729.7634154733302</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>697.1764656922251</v>
+        <v>697.1764656922248</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>1114</v>
       </c>
       <c r="B1114">
-        <v>632.8471382492289</v>
+        <v>632.8471382492287</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>1119</v>
       </c>
       <c r="B1119">
-        <v>612.2324041613743</v>
+        <v>612.2324041613742</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>673.0452894398886</v>
+        <v>673.0452894398884</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>1123</v>
       </c>
       <c r="B1123">
-        <v>636.4026467831645</v>
+        <v>636.4026467831643</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>1125</v>
       </c>
       <c r="B1125">
-        <v>413.6844539295258</v>
+        <v>413.6844539295257</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>1128</v>
       </c>
       <c r="B1128">
-        <v>529.8284186297054</v>
+        <v>529.8284186297053</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>751.5938375366559</v>
+        <v>751.5938375366558</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>1144</v>
       </c>
       <c r="B1144">
-        <v>411.9950459271626</v>
+        <v>411.9950459271625</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>1148</v>
       </c>
       <c r="B1148">
-        <v>469.7531345412941</v>
+        <v>469.7531345412939</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>1149</v>
       </c>
       <c r="B1149">
-        <v>479.5409159407786</v>
+        <v>479.5409159407785</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>1151</v>
       </c>
       <c r="B1151">
-        <v>454.7480438973525</v>
+        <v>454.7480438973524</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>593.1165819007533</v>
+        <v>593.1165819007532</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>169.712426974024</v>
+        <v>169.7124269740239</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>527.7368292409872</v>
+        <v>527.736829240987</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9815,7 +9815,7 @@
         <v>1184</v>
       </c>
       <c r="B1184">
-        <v>599.9099685769232</v>
+        <v>599.9099685769231</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -9935,7 +9935,7 @@
         <v>1199</v>
       </c>
       <c r="B1199">
-        <v>307.8124239846994</v>
+        <v>307.8124239846993</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>411.5338400336212</v>
+        <v>411.5338400336211</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>167.5991503284448</v>
+        <v>167.5991503284447</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>35.99218027854645</v>
+        <v>35.99218027854644</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>21.894047785819</v>
+        <v>21.89404778581899</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10399,7 +10399,7 @@
         <v>1257</v>
       </c>
       <c r="B1257">
-        <v>119.3510410762507</v>
+        <v>119.3510410762506</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>97.0213138843577</v>
+        <v>97.02131388435767</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10503,7 +10503,7 @@
         <v>1270</v>
       </c>
       <c r="B1270">
-        <v>15.93082585660269</v>
+        <v>15.93082585660268</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
@@ -10615,7 +10615,7 @@
         <v>1284</v>
       </c>
       <c r="B1284">
-        <v>87.51998011806076</v>
+        <v>87.51998011806073</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -10735,7 +10735,7 @@
         <v>1299</v>
       </c>
       <c r="B1299">
-        <v>162.6106123367668</v>
+        <v>162.6106123367667</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>184.9766510303499</v>
+        <v>184.9766510303498</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10847,7 +10847,7 @@
         <v>1313</v>
       </c>
       <c r="B1313">
-        <v>1.895635937777502</v>
+        <v>1.895635937777501</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>1361</v>
       </c>
       <c r="B1361">
-        <v>48.16607866847277</v>
+        <v>48.16607866847276</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>1378</v>
       </c>
       <c r="B1378">
-        <v>69.51762265462575</v>
+        <v>69.51762265462574</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11375,7 +11375,7 @@
         <v>1379</v>
       </c>
       <c r="B1379">
-        <v>43.27358591758491</v>
+        <v>43.2735859175849</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>6.330122837795146</v>
+        <v>6.330122837795145</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11415,7 +11415,7 @@
         <v>1384</v>
       </c>
       <c r="B1384">
-        <v>1.219774851105259</v>
+        <v>1.219774851105258</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -11439,7 +11439,7 @@
         <v>1387</v>
       </c>
       <c r="B1387">
-        <v>2.647454003965838</v>
+        <v>2.647454003965837</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -11807,7 +11807,7 @@
         <v>1433</v>
       </c>
       <c r="B1433">
-        <v>216.5574586286269</v>
+        <v>216.5574586286268</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>812.5982154318316</v>
+        <v>812.5982154318314</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>751.3359643297379</v>
+        <v>751.3359643297376</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11959,7 +11959,7 @@
         <v>1452</v>
       </c>
       <c r="B1452">
-        <v>235.2507603728099</v>
+        <v>235.2507603728098</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
@@ -12223,7 +12223,7 @@
         <v>1485</v>
       </c>
       <c r="B1485">
-        <v>318.429274045453</v>
+        <v>318.4292740454529</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
@@ -12287,7 +12287,7 @@
         <v>1493</v>
       </c>
       <c r="B1493">
-        <v>725.1682374297437</v>
+        <v>725.1682374297436</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1496</v>
       </c>
       <c r="B1496">
-        <v>483.1955997141972</v>
+        <v>483.1955997141971</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12327,7 +12327,7 @@
         <v>1498</v>
       </c>
       <c r="B1498">
-        <v>215.0493736778833</v>
+        <v>215.0493736778832</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12343,7 +12343,7 @@
         <v>1500</v>
       </c>
       <c r="B1500">
-        <v>149.6174543732354</v>
+        <v>149.6174543732353</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
@@ -12407,7 +12407,7 @@
         <v>1508</v>
       </c>
       <c r="B1508">
-        <v>171.9289296869826</v>
+        <v>171.9289296869825</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
@@ -12463,7 +12463,7 @@
         <v>1515</v>
       </c>
       <c r="B1515">
-        <v>398.7710710750022</v>
+        <v>398.7710710750021</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
@@ -12511,7 +12511,7 @@
         <v>1521</v>
       </c>
       <c r="B1521">
-        <v>277.1776496992213</v>
+        <v>277.1776496992212</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>249.7281473045378</v>
+        <v>249.7281473045377</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12879,7 +12879,7 @@
         <v>1567</v>
       </c>
       <c r="B1567">
-        <v>370.3977442908297</v>
+        <v>370.3977442908296</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>76.37920696149223</v>
+        <v>76.37920696149222</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>292.5147898299661</v>
+        <v>292.514789829966</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>404.0160989782958</v>
+        <v>404.0160989782957</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13407,7 +13407,7 @@
         <v>1633</v>
       </c>
       <c r="B1633">
-        <v>576.0041639533174</v>
+        <v>576.0041639533173</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>511.3240304770435</v>
+        <v>511.3240304770434</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>534.3566006338541</v>
+        <v>534.356600633854</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13791,7 +13791,7 @@
         <v>1681</v>
       </c>
       <c r="B1681">
-        <v>330.417198346376</v>
+        <v>330.4171983463759</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>289.2028233291581</v>
+        <v>289.202823329158</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13879,7 +13879,7 @@
         <v>1692</v>
       </c>
       <c r="B1692">
-        <v>132.7578863951149</v>
+        <v>132.7578863951148</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>513.283122449183</v>
+        <v>513.2831224491829</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>55.63793622891427</v>
+        <v>55.63793622891426</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14311,7 +14311,7 @@
         <v>1746</v>
       </c>
       <c r="B1746">
-        <v>59.39741077598763</v>
+        <v>59.39741077598762</v>
       </c>
     </row>
     <row r="1747" spans="1:2">
@@ -14415,7 +14415,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>565.0331668494454</v>
+        <v>565.0331668494453</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14527,7 +14527,7 @@
         <v>1773</v>
       </c>
       <c r="B1773">
-        <v>75.18734566146428</v>
+        <v>75.18734566146426</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
@@ -14639,7 +14639,7 @@
         <v>1787</v>
       </c>
       <c r="B1787">
-        <v>76.8228080777412</v>
+        <v>76.82280807774119</v>
       </c>
     </row>
     <row r="1788" spans="1:2">
@@ -14719,7 +14719,7 @@
         <v>1797</v>
       </c>
       <c r="B1797">
-        <v>126.2387380126619</v>
+        <v>126.2387380126618</v>
       </c>
     </row>
     <row r="1798" spans="1:2">
@@ -14759,7 +14759,7 @@
         <v>1802</v>
       </c>
       <c r="B1802">
-        <v>327.8635531581043</v>
+        <v>327.8635531581042</v>
       </c>
     </row>
     <row r="1803" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>409.8155938410536</v>
+        <v>409.8155938410534</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14831,7 +14831,7 @@
         <v>1811</v>
       </c>
       <c r="B1811">
-        <v>303.8431870654856</v>
+        <v>303.8431870654855</v>
       </c>
     </row>
     <row r="1812" spans="1:2">
@@ -14839,7 +14839,7 @@
         <v>1812</v>
       </c>
       <c r="B1812">
-        <v>264.5534681733645</v>
+        <v>264.5534681733644</v>
       </c>
     </row>
     <row r="1813" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>475.8316037257536</v>
+        <v>475.8316037257534</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>498.8842492487125</v>
+        <v>498.8842492487124</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -15015,7 +15015,7 @@
         <v>1834</v>
       </c>
       <c r="B1834">
-        <v>71.68681139296079</v>
+        <v>71.68681139296078</v>
       </c>
     </row>
     <row r="1835" spans="1:2">
@@ -15311,7 +15311,7 @@
         <v>1871</v>
       </c>
       <c r="B1871">
-        <v>35.06743564599599</v>
+        <v>35.06743564599597</v>
       </c>
     </row>
     <row r="1872" spans="1:2">
@@ -15367,7 +15367,7 @@
         <v>1878</v>
       </c>
       <c r="B1878">
-        <v>302.1448990106509</v>
+        <v>302.1448990106508</v>
       </c>
     </row>
     <row r="1879" spans="1:2">
@@ -15399,7 +15399,7 @@
         <v>1882</v>
       </c>
       <c r="B1882">
-        <v>163.4594046789378</v>
+        <v>163.4594046789377</v>
       </c>
     </row>
     <row r="1883" spans="1:2">
@@ -15423,7 +15423,7 @@
         <v>1885</v>
       </c>
       <c r="B1885">
-        <v>84.6300534971874</v>
+        <v>84.63005349718739</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>42.07998963700808</v>
+        <v>42.07998963700807</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>59.51536014620728</v>
+        <v>59.51536014620727</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>56.87838900022333</v>
+        <v>56.87838900022332</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15495,7 +15495,7 @@
         <v>1894</v>
       </c>
       <c r="B1894">
-        <v>92.14604784912235</v>
+        <v>92.14604784912234</v>
       </c>
     </row>
     <row r="1895" spans="1:2">
@@ -15599,7 +15599,7 @@
         <v>1907</v>
       </c>
       <c r="B1907">
-        <v>78.60341128827582</v>
+        <v>78.60341128827581</v>
       </c>
     </row>
     <row r="1908" spans="1:2">
@@ -15647,7 +15647,7 @@
         <v>1913</v>
       </c>
       <c r="B1913">
-        <v>13.62516565840461</v>
+        <v>13.6251656584046</v>
       </c>
     </row>
     <row r="1914" spans="1:2">
@@ -15735,7 +15735,7 @@
         <v>1924</v>
       </c>
       <c r="B1924">
-        <v>403.8137920403079</v>
+        <v>403.8137920403078</v>
       </c>
     </row>
     <row r="1925" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>602.2565590763809</v>
+        <v>602.2565590763808</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15855,7 +15855,7 @@
         <v>1939</v>
       </c>
       <c r="B1939">
-        <v>7.065305898758025</v>
+        <v>7.065305898758024</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -15887,7 +15887,7 @@
         <v>1943</v>
       </c>
       <c r="B1943">
-        <v>46.05409153546366</v>
+        <v>46.05409153546365</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -15943,7 +15943,7 @@
         <v>1950</v>
       </c>
       <c r="B1950">
-        <v>353.8252218108157</v>
+        <v>353.8252218108156</v>
       </c>
     </row>
     <row r="1951" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>201.5207456196138</v>
+        <v>201.5207456196137</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -16039,7 +16039,7 @@
         <v>1962</v>
       </c>
       <c r="B1962">
-        <v>220.4466519857615</v>
+        <v>220.4466519857614</v>
       </c>
     </row>
     <row r="1963" spans="1:2">
@@ -16095,7 +16095,7 @@
         <v>1969</v>
       </c>
       <c r="B1969">
-        <v>321.4886719251427</v>
+        <v>321.4886719251426</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -16135,7 +16135,7 @@
         <v>1974</v>
       </c>
       <c r="B1974">
-        <v>481.7075022082904</v>
+        <v>481.7075022082903</v>
       </c>
     </row>
     <row r="1975" spans="1:2">
@@ -16183,7 +16183,7 @@
         <v>1980</v>
       </c>
       <c r="B1980">
-        <v>105.0869483157501</v>
+        <v>105.08694831575</v>
       </c>
     </row>
     <row r="1981" spans="1:2">
@@ -16279,7 +16279,7 @@
         <v>1992</v>
       </c>
       <c r="B1992">
-        <v>309.22482124132</v>
+        <v>309.2248212413199</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -16351,7 +16351,7 @@
         <v>2001</v>
       </c>
       <c r="B2001">
-        <v>196.9280586798557</v>
+        <v>196.9280586798556</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16575,7 +16575,7 @@
         <v>2029</v>
       </c>
       <c r="B2029">
-        <v>199.5633827666024</v>
+        <v>199.5633827666023</v>
       </c>
     </row>
     <row r="2030" spans="1:2">
@@ -16799,7 +16799,7 @@
         <v>2057</v>
       </c>
       <c r="B2057">
-        <v>236.3600957990612</v>
+        <v>236.3600957990611</v>
       </c>
     </row>
     <row r="2058" spans="1:2">
@@ -16887,7 +16887,7 @@
         <v>2068</v>
       </c>
       <c r="B2068">
-        <v>329.8660489510695</v>
+        <v>329.8660489510694</v>
       </c>
     </row>
     <row r="2069" spans="1:2">
@@ -16927,7 +16927,7 @@
         <v>2073</v>
       </c>
       <c r="B2073">
-        <v>344.9743006006199</v>
+        <v>344.9743006006198</v>
       </c>
     </row>
     <row r="2074" spans="1:2">
@@ -16991,7 +16991,7 @@
         <v>2081</v>
       </c>
       <c r="B2081">
-        <v>50.02344568309291</v>
+        <v>50.0234456830929</v>
       </c>
     </row>
     <row r="2082" spans="1:2">
@@ -17039,7 +17039,7 @@
         <v>2087</v>
       </c>
       <c r="B2087">
-        <v>96.10895443390106</v>
+        <v>96.10895443390105</v>
       </c>
     </row>
     <row r="2088" spans="1:2">
@@ -17047,7 +17047,7 @@
         <v>2088</v>
       </c>
       <c r="B2088">
-        <v>185.3191924603373</v>
+        <v>185.3191924603372</v>
       </c>
     </row>
     <row r="2089" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>219.4585395332317</v>
+        <v>219.4585395332316</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>297.1150731710463</v>
+        <v>297.1150731710462</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>35.88075760035779</v>
+        <v>35.88075760035778</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17167,7 +17167,7 @@
         <v>2103</v>
       </c>
       <c r="B2103">
-        <v>45.46745123737523</v>
+        <v>45.46745123737522</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>385.27918826356</v>
+        <v>385.2791882635599</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17303,7 +17303,7 @@
         <v>2120</v>
       </c>
       <c r="B2120">
-        <v>99.80877114727349</v>
+        <v>99.80877114727346</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17327,7 +17327,7 @@
         <v>2123</v>
       </c>
       <c r="B2123">
-        <v>8.856003062006213</v>
+        <v>8.856003062006211</v>
       </c>
     </row>
     <row r="2124" spans="1:2">
@@ -17415,7 +17415,7 @@
         <v>2134</v>
       </c>
       <c r="B2134">
-        <v>9.744120555357897</v>
+        <v>9.744120555357895</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>50.4044087262488</v>
+        <v>50.40440872624879</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17591,7 +17591,7 @@
         <v>2156</v>
       </c>
       <c r="B2156">
-        <v>27.46133074180383</v>
+        <v>27.46133074180382</v>
       </c>
     </row>
     <row r="2157" spans="1:2">
@@ -17671,7 +17671,7 @@
         <v>2166</v>
       </c>
       <c r="B2166">
-        <v>365.3300478116093</v>
+        <v>365.3300478116092</v>
       </c>
     </row>
     <row r="2167" spans="1:2">
@@ -17695,7 +17695,7 @@
         <v>2169</v>
       </c>
       <c r="B2169">
-        <v>86.93314053166604</v>
+        <v>86.93314053166603</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -17791,7 +17791,7 @@
         <v>2181</v>
       </c>
       <c r="B2181">
-        <v>43.13979605772562</v>
+        <v>43.13979605772561</v>
       </c>
     </row>
     <row r="2182" spans="1:2">
@@ -17847,7 +17847,7 @@
         <v>2188</v>
       </c>
       <c r="B2188">
-        <v>274.897557018436</v>
+        <v>274.8975570184359</v>
       </c>
     </row>
     <row r="2189" spans="1:2">
@@ -17919,7 +17919,7 @@
         <v>2197</v>
       </c>
       <c r="B2197">
-        <v>10.52021310953648</v>
+        <v>10.52021310953647</v>
       </c>
     </row>
     <row r="2198" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>14.46425441848552</v>
+        <v>14.46425441848551</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>4.863100656420513</v>
+        <v>4.863100656420512</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18495,7 +18495,7 @@
         <v>2269</v>
       </c>
       <c r="B2269">
-        <v>0.3907475128526304</v>
+        <v>0.3907475128526303</v>
       </c>
     </row>
     <row r="2270" spans="1:2">
@@ -18599,7 +18599,7 @@
         <v>2282</v>
       </c>
       <c r="B2282">
-        <v>82.11894463946695</v>
+        <v>82.11894463946693</v>
       </c>
     </row>
     <row r="2283" spans="1:2">
@@ -18783,7 +18783,7 @@
         <v>2305</v>
       </c>
       <c r="B2305">
-        <v>3.640231268218029</v>
+        <v>3.640231268218028</v>
       </c>
     </row>
     <row r="2306" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>26.11651859740891</v>
+        <v>26.1165185974089</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -18839,7 +18839,7 @@
         <v>2312</v>
       </c>
       <c r="B2312">
-        <v>0.5127902062692583</v>
+        <v>0.5127902062692581</v>
       </c>
     </row>
     <row r="2313" spans="1:2">
@@ -18951,7 +18951,7 @@
         <v>2326</v>
       </c>
       <c r="B2326">
-        <v>0.1188463727476758</v>
+        <v>0.1188463727476757</v>
       </c>
     </row>
     <row r="2327" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>87.49369164589282</v>
+        <v>87.49369164589281</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19039,7 +19039,7 @@
         <v>2337</v>
       </c>
       <c r="B2337">
-        <v>23.96111005931172</v>
+        <v>23.96111005931171</v>
       </c>
     </row>
     <row r="2338" spans="1:2">
@@ -19079,7 +19079,7 @@
         <v>2342</v>
       </c>
       <c r="B2342">
-        <v>0.6361904047369658</v>
+        <v>0.6361904047369655</v>
       </c>
     </row>
     <row r="2343" spans="1:2">
@@ -19127,7 +19127,7 @@
         <v>2348</v>
       </c>
       <c r="B2348">
-        <v>6.78188146917684</v>
+        <v>6.781881469176839</v>
       </c>
     </row>
     <row r="2349" spans="1:2">
@@ -19191,7 +19191,7 @@
         <v>2356</v>
       </c>
       <c r="B2356">
-        <v>246.5229465831141</v>
+        <v>246.522946583114</v>
       </c>
     </row>
     <row r="2357" spans="1:2">
@@ -19287,7 +19287,7 @@
         <v>2368</v>
       </c>
       <c r="B2368">
-        <v>67.90461827204145</v>
+        <v>67.90461827204143</v>
       </c>
     </row>
     <row r="2369" spans="1:2">
@@ -19303,7 +19303,7 @@
         <v>2370</v>
       </c>
       <c r="B2370">
-        <v>56.14510181580955</v>
+        <v>56.14510181580954</v>
       </c>
     </row>
     <row r="2371" spans="1:2">
@@ -19319,7 +19319,7 @@
         <v>2372</v>
       </c>
       <c r="B2372">
-        <v>74.95441279993624</v>
+        <v>74.95441279993622</v>
       </c>
     </row>
     <row r="2373" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>57.02942609070784</v>
+        <v>57.02942609070783</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19559,7 +19559,7 @@
         <v>2402</v>
       </c>
       <c r="B2402">
-        <v>321.0247404709418</v>
+        <v>321.0247404709417</v>
       </c>
     </row>
     <row r="2403" spans="1:2">
@@ -19927,7 +19927,7 @@
         <v>2448</v>
       </c>
       <c r="B2448">
-        <v>7.867108109803168</v>
+        <v>7.867108109803167</v>
       </c>
     </row>
     <row r="2449" spans="1:2">
@@ -19991,7 +19991,7 @@
         <v>2456</v>
       </c>
       <c r="B2456">
-        <v>0.870843593261945</v>
+        <v>0.8708435932619448</v>
       </c>
     </row>
     <row r="2457" spans="1:2">
@@ -20087,7 +20087,7 @@
         <v>2468</v>
       </c>
       <c r="B2468">
-        <v>1.708983389319671</v>
+        <v>1.70898338931967</v>
       </c>
     </row>
     <row r="2469" spans="1:2">
@@ -20167,7 +20167,7 @@
         <v>2478</v>
       </c>
       <c r="B2478">
-        <v>354.0969279707586</v>
+        <v>354.0969279707585</v>
       </c>
     </row>
     <row r="2479" spans="1:2">
@@ -20183,7 +20183,7 @@
         <v>2480</v>
       </c>
       <c r="B2480">
-        <v>134.6718571501421</v>
+        <v>134.671857150142</v>
       </c>
     </row>
     <row r="2481" spans="1:2">
@@ -20199,7 +20199,7 @@
         <v>2482</v>
       </c>
       <c r="B2482">
-        <v>59.46452404384108</v>
+        <v>59.46452404384107</v>
       </c>
     </row>
     <row r="2483" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>6.771921860227389</v>
+        <v>6.771921860227388</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20351,7 +20351,7 @@
         <v>2501</v>
       </c>
       <c r="B2501">
-        <v>307.0616639049606</v>
+        <v>307.0616639049605</v>
       </c>
     </row>
     <row r="2502" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>4.506019972205143</v>
+        <v>4.506019972205142</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20711,7 +20711,7 @@
         <v>2546</v>
       </c>
       <c r="B2546">
-        <v>66.69467448892807</v>
+        <v>66.69467448892806</v>
       </c>
     </row>
     <row r="2547" spans="1:2">
@@ -20727,7 +20727,7 @@
         <v>2548</v>
       </c>
       <c r="B2548">
-        <v>75.92271951167332</v>
+        <v>75.92271951167331</v>
       </c>
     </row>
     <row r="2549" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>93.5424141199282</v>
+        <v>93.54241411992818</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -20863,7 +20863,7 @@
         <v>2565</v>
       </c>
       <c r="B2565">
-        <v>71.25519688219308</v>
+        <v>71.25519688219306</v>
       </c>
     </row>
     <row r="2566" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>263.5552682156839</v>
+        <v>263.5552682156838</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -20927,7 +20927,7 @@
         <v>2573</v>
       </c>
       <c r="B2573">
-        <v>499.7132006815661</v>
+        <v>499.713200681566</v>
       </c>
     </row>
     <row r="2574" spans="1:2">
@@ -21007,7 +21007,7 @@
         <v>2583</v>
       </c>
       <c r="B2583">
-        <v>94.02700708235474</v>
+        <v>94.02700708235471</v>
       </c>
     </row>
     <row r="2584" spans="1:2">
@@ -21039,7 +21039,7 @@
         <v>2587</v>
       </c>
       <c r="B2587">
-        <v>9.454586004920078</v>
+        <v>9.454586004920076</v>
       </c>
     </row>
     <row r="2588" spans="1:2">
@@ -21103,7 +21103,7 @@
         <v>2595</v>
       </c>
       <c r="B2595">
-        <v>291.0004917732029</v>
+        <v>291.0004917732028</v>
       </c>
     </row>
     <row r="2596" spans="1:2">
@@ -21207,7 +21207,7 @@
         <v>2608</v>
       </c>
       <c r="B2608">
-        <v>0.6006206658456769</v>
+        <v>0.6006206658456767</v>
       </c>
     </row>
     <row r="2609" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>2.757966110437374</v>
+        <v>2.757966110437373</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>146.4912949109387</v>
+        <v>146.4912949109386</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>219.8108988430142</v>
+        <v>219.8108988430141</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21743,7 +21743,7 @@
         <v>2675</v>
       </c>
       <c r="B2675">
-        <v>3.715918036236476</v>
+        <v>3.715918036236475</v>
       </c>
     </row>
     <row r="2676" spans="1:2">
@@ -21767,7 +21767,7 @@
         <v>2678</v>
       </c>
       <c r="B2678">
-        <v>0.552662814150173</v>
+        <v>0.5526628141501729</v>
       </c>
     </row>
     <row r="2679" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>84.81113623055548</v>
+        <v>84.81113623055546</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22167,7 +22167,7 @@
         <v>2728</v>
       </c>
       <c r="B2728">
-        <v>5.943418239920847</v>
+        <v>5.943418239920846</v>
       </c>
     </row>
     <row r="2729" spans="1:2">
@@ -22319,7 +22319,7 @@
         <v>2747</v>
       </c>
       <c r="B2747">
-        <v>6.332793008028389</v>
+        <v>6.332793008028387</v>
       </c>
     </row>
     <row r="2748" spans="1:2">
@@ -22335,7 +22335,7 @@
         <v>2749</v>
       </c>
       <c r="B2749">
-        <v>2.812854769819076</v>
+        <v>2.812854769819075</v>
       </c>
     </row>
     <row r="2750" spans="1:2">
@@ -22423,7 +22423,7 @@
         <v>2760</v>
       </c>
       <c r="B2760">
-        <v>32.15822788148911</v>
+        <v>32.1582278814891</v>
       </c>
     </row>
     <row r="2761" spans="1:2">
@@ -22431,7 +22431,7 @@
         <v>2761</v>
       </c>
       <c r="B2761">
-        <v>41.22709430029583</v>
+        <v>41.22709430029582</v>
       </c>
     </row>
     <row r="2762" spans="1:2">
@@ -22647,7 +22647,7 @@
         <v>2788</v>
       </c>
       <c r="B2788">
-        <v>131.8271338062719</v>
+        <v>131.8271338062718</v>
       </c>
     </row>
     <row r="2789" spans="1:2">
@@ -22655,7 +22655,7 @@
         <v>2789</v>
       </c>
       <c r="B2789">
-        <v>170.1624375538885</v>
+        <v>170.1624375538884</v>
       </c>
     </row>
     <row r="2790" spans="1:2">
@@ -22863,7 +22863,7 @@
         <v>2815</v>
       </c>
       <c r="B2815">
-        <v>96.87102705573216</v>
+        <v>96.87102705573214</v>
       </c>
     </row>
     <row r="2816" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>38.052229362084</v>
+        <v>38.05222936208399</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -23007,7 +23007,7 @@
         <v>2833</v>
       </c>
       <c r="B2833">
-        <v>75.48167690559187</v>
+        <v>75.48167690559185</v>
       </c>
     </row>
     <row r="2834" spans="1:2">
@@ -23063,7 +23063,7 @@
         <v>2840</v>
       </c>
       <c r="B2840">
-        <v>25.0717437902643</v>
+        <v>25.07174379026429</v>
       </c>
     </row>
     <row r="2841" spans="1:2">
@@ -23103,7 +23103,7 @@
         <v>2845</v>
       </c>
       <c r="B2845">
-        <v>0.3395661728028903</v>
+        <v>0.3395661728028902</v>
       </c>
     </row>
     <row r="2846" spans="1:2">
@@ -23175,7 +23175,7 @@
         <v>2854</v>
       </c>
       <c r="B2854">
-        <v>4.247077935209028</v>
+        <v>4.247077935209027</v>
       </c>
     </row>
     <row r="2855" spans="1:2">
@@ -23207,7 +23207,7 @@
         <v>2858</v>
       </c>
       <c r="B2858">
-        <v>81.25898629072297</v>
+        <v>81.25898629072296</v>
       </c>
     </row>
     <row r="2859" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>0.6486254089073668</v>
+        <v>0.6486254089073666</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23383,7 +23383,7 @@
         <v>2880</v>
       </c>
       <c r="B2880">
-        <v>6.140290761638878</v>
+        <v>6.140290761638877</v>
       </c>
     </row>
     <row r="2881" spans="1:2">
@@ -23423,7 +23423,7 @@
         <v>2885</v>
       </c>
       <c r="B2885">
-        <v>111.913718713934</v>
+        <v>111.9137187139339</v>
       </c>
     </row>
     <row r="2886" spans="1:2">
@@ -23463,7 +23463,7 @@
         <v>2890</v>
       </c>
       <c r="B2890">
-        <v>0.6716185903165812</v>
+        <v>0.6716185903165811</v>
       </c>
     </row>
     <row r="2891" spans="1:2">
@@ -23575,7 +23575,7 @@
         <v>2904</v>
       </c>
       <c r="B2904">
-        <v>0.4276346353698057</v>
+        <v>0.4276346353698056</v>
       </c>
     </row>
     <row r="2905" spans="1:2">
@@ -23631,7 +23631,7 @@
         <v>2911</v>
       </c>
       <c r="B2911">
-        <v>2.945929624265345</v>
+        <v>2.945929624265344</v>
       </c>
     </row>
     <row r="2912" spans="1:2">
@@ -23967,7 +23967,7 @@
         <v>2953</v>
       </c>
       <c r="B2953">
-        <v>83.3924262237621</v>
+        <v>83.39242622376209</v>
       </c>
     </row>
     <row r="2954" spans="1:2">
@@ -24151,7 +24151,7 @@
         <v>2976</v>
       </c>
       <c r="B2976">
-        <v>76.88469588897533</v>
+        <v>76.8846958889753</v>
       </c>
     </row>
     <row r="2977" spans="1:2">
@@ -24575,7 +24575,7 @@
         <v>3029</v>
       </c>
       <c r="B3029">
-        <v>17.20942446123286</v>
+        <v>17.20942446123285</v>
       </c>
     </row>
     <row r="3030" spans="1:2">
@@ -24759,7 +24759,7 @@
         <v>3052</v>
       </c>
       <c r="B3052">
-        <v>2.695155125431474</v>
+        <v>2.695155125431473</v>
       </c>
     </row>
     <row r="3053" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>6.829226626558919</v>
+        <v>6.829226626558918</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -25039,7 +25039,7 @@
         <v>3087</v>
       </c>
       <c r="B3087">
-        <v>0.2684974130619415</v>
+        <v>0.2684974130619414</v>
       </c>
     </row>
     <row r="3088" spans="1:2">
@@ -25047,7 +25047,7 @@
         <v>3088</v>
       </c>
       <c r="B3088">
-        <v>0.1509973207445645</v>
+        <v>0.1509973207445644</v>
       </c>
     </row>
     <row r="3089" spans="1:2">
@@ -25127,7 +25127,7 @@
         <v>3098</v>
       </c>
       <c r="B3098">
-        <v>6.722516237600899</v>
+        <v>6.722516237600897</v>
       </c>
     </row>
     <row r="3099" spans="1:2">
@@ -25151,7 +25151,7 @@
         <v>3101</v>
       </c>
       <c r="B3101">
-        <v>5.999759095606221</v>
+        <v>5.99975909560622</v>
       </c>
     </row>
     <row r="3102" spans="1:2">
@@ -26055,7 +26055,7 @@
         <v>3214</v>
       </c>
       <c r="B3214">
-        <v>0.946306455006855</v>
+        <v>0.9463064550068547</v>
       </c>
     </row>
     <row r="3215" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>6.16792120609283</v>
+        <v>6.167921206092829</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26799,7 +26799,7 @@
         <v>3307</v>
       </c>
       <c r="B3307">
-        <v>0.4984009751059598</v>
+        <v>0.4984009751059597</v>
       </c>
     </row>
     <row r="3308" spans="1:2">
@@ -26855,7 +26855,7 @@
         <v>3314</v>
       </c>
       <c r="B3314">
-        <v>151.9095336595019</v>
+        <v>151.9095336595018</v>
       </c>
     </row>
     <row r="3315" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>55.97111726299786</v>
+        <v>55.97111726299785</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>3345</v>
       </c>
       <c r="B3345">
-        <v>4.272275596971053</v>
+        <v>4.272275596971052</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -27287,7 +27287,7 @@
         <v>3368</v>
       </c>
       <c r="B3368">
-        <v>93.22164786811337</v>
+        <v>93.22164786811334</v>
       </c>
     </row>
     <row r="3369" spans="1:2">
@@ -27311,7 +27311,7 @@
         <v>3371</v>
       </c>
       <c r="B3371">
-        <v>23.51052799092184</v>
+        <v>23.51052799092183</v>
       </c>
     </row>
     <row r="3372" spans="1:2">
@@ -27447,7 +27447,7 @@
         <v>3388</v>
       </c>
       <c r="B3388">
-        <v>254.3761660563951</v>
+        <v>254.376166056395</v>
       </c>
     </row>
     <row r="3389" spans="1:2">
@@ -28031,7 +28031,7 @@
         <v>3461</v>
       </c>
       <c r="B3461">
-        <v>0.0331035461009536</v>
+        <v>0.0331035461009535</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -29575,7 +29575,7 @@
         <v>3654</v>
       </c>
       <c r="B3654">
-        <v>0.7743898114439551</v>
+        <v>0.774389811443955</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
@@ -29743,7 +29743,7 @@
         <v>3675</v>
       </c>
       <c r="B3675">
-        <v>27.50575738055451</v>
+        <v>27.5057573805545</v>
       </c>
     </row>
     <row r="3676" spans="1:2">
@@ -29911,7 +29911,7 @@
         <v>3696</v>
       </c>
       <c r="B3696">
-        <v>0.9170280721025093</v>
+        <v>0.9170280721025091</v>
       </c>
     </row>
     <row r="3697" spans="1:2">
@@ -29919,7 +29919,7 @@
         <v>3697</v>
       </c>
       <c r="B3697">
-        <v>6.37222190635677</v>
+        <v>6.372221906356769</v>
       </c>
     </row>
     <row r="3698" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>3701</v>
       </c>
       <c r="B3701">
-        <v>53.90549396830497</v>
+        <v>53.90549396830496</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -30151,7 +30151,7 @@
         <v>3726</v>
       </c>
       <c r="B3726">
-        <v>0.093362263352463</v>
+        <v>0.09336226335246291</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -30895,7 +30895,7 @@
         <v>3819</v>
       </c>
       <c r="B3819">
-        <v>7.03599674339462</v>
+        <v>7.035996743394618</v>
       </c>
     </row>
     <row r="3820" spans="1:2">
@@ -31063,7 +31063,7 @@
         <v>3840</v>
       </c>
       <c r="B3840">
-        <v>0.1377328376134405</v>
+        <v>0.1377328376134404</v>
       </c>
     </row>
     <row r="3841" spans="1:2">
@@ -34175,7 +34175,7 @@
         <v>4229</v>
       </c>
       <c r="B4229">
-        <v>0.1420779088326336</v>
+        <v>0.1420779088326335</v>
       </c>
     </row>
     <row r="4230" spans="1:2">
@@ -42015,7 +42015,7 @@
         <v>5209</v>
       </c>
       <c r="B5209">
-        <v>0.2252391606210996</v>
+        <v>0.2252391606210995</v>
       </c>
     </row>
     <row r="5210" spans="1:2">
@@ -42023,7 +42023,7 @@
         <v>5210</v>
       </c>
       <c r="B5210">
-        <v>1.981107761634774</v>
+        <v>1.981107761634773</v>
       </c>
     </row>
     <row r="5211" spans="1:2">
@@ -42223,7 +42223,7 @@
         <v>5235</v>
       </c>
       <c r="B5235">
-        <v>9.34414218400055</v>
+        <v>9.344142184000548</v>
       </c>
     </row>
     <row r="5236" spans="1:2">
@@ -45327,7 +45327,7 @@
         <v>5623</v>
       </c>
       <c r="B5623">
-        <v>0.615944852236513</v>
+        <v>0.6159448522365127</v>
       </c>
     </row>
     <row r="5624" spans="1:2">
@@ -47783,7 +47783,7 @@
         <v>5930</v>
       </c>
       <c r="B5930">
-        <v>41.23644326642913</v>
+        <v>41.23644326642912</v>
       </c>
     </row>
     <row r="5931" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>0.0361969109140241</v>
+        <v>0.036196910914024</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -49151,7 +49151,7 @@
         <v>6101</v>
       </c>
       <c r="B6101">
-        <v>3.458531327242536</v>
+        <v>3.458531327242535</v>
       </c>
     </row>
     <row r="6102" spans="1:2">
@@ -50903,7 +50903,7 @@
         <v>6320</v>
       </c>
       <c r="B6320">
-        <v>2.765385496852125</v>
+        <v>2.765385496852124</v>
       </c>
     </row>
     <row r="6321" spans="1:2">
@@ -51007,7 +51007,7 @@
         <v>6333</v>
       </c>
       <c r="B6333">
-        <v>0.5266574486055974</v>
+        <v>0.5266574486055973</v>
       </c>
     </row>
     <row r="6334" spans="1:2">
@@ -51503,7 +51503,7 @@
         <v>6395</v>
       </c>
       <c r="B6395">
-        <v>0.9297423729727543</v>
+        <v>0.9297423729727542</v>
       </c>
     </row>
     <row r="6396" spans="1:2">
@@ -51511,7 +51511,7 @@
         <v>6396</v>
       </c>
       <c r="B6396">
-        <v>0.8052607423723867</v>
+        <v>0.8052607423723865</v>
       </c>
     </row>
     <row r="6397" spans="1:2">
@@ -51607,7 +51607,7 @@
         <v>6408</v>
       </c>
       <c r="B6408">
-        <v>53.78896892333321</v>
+        <v>53.7889689233332</v>
       </c>
     </row>
     <row r="6409" spans="1:2">
@@ -51695,7 +51695,7 @@
         <v>6419</v>
       </c>
       <c r="B6419">
-        <v>6.503477874015794</v>
+        <v>6.503477874015793</v>
       </c>
     </row>
     <row r="6420" spans="1:2">
@@ -51791,7 +51791,7 @@
         <v>6431</v>
       </c>
       <c r="B6431">
-        <v>1.371306088668057</v>
+        <v>1.371306088668056</v>
       </c>
     </row>
     <row r="6432" spans="1:2">
@@ -51831,7 +51831,7 @@
         <v>6436</v>
       </c>
       <c r="B6436">
-        <v>49.7101820498678</v>
+        <v>49.71018204986778</v>
       </c>
     </row>
     <row r="6437" spans="1:2">
@@ -51991,7 +51991,7 @@
         <v>6456</v>
       </c>
       <c r="B6456">
-        <v>7.174616413971049</v>
+        <v>7.174616413971047</v>
       </c>
     </row>
     <row r="6457" spans="1:2">
@@ -52007,7 +52007,7 @@
         <v>6458</v>
       </c>
       <c r="B6458">
-        <v>37.22008052419859</v>
+        <v>37.22008052419858</v>
       </c>
     </row>
     <row r="6459" spans="1:2">
@@ -52255,7 +52255,7 @@
         <v>6489</v>
       </c>
       <c r="B6489">
-        <v>0.5302979770478484</v>
+        <v>0.5302979770478483</v>
       </c>
     </row>
     <row r="6490" spans="1:2">
@@ -52295,7 +52295,7 @@
         <v>6494</v>
       </c>
       <c r="B6494">
-        <v>0.213611274091172</v>
+        <v>0.2136112740911719</v>
       </c>
     </row>
     <row r="6495" spans="1:2">
@@ -52599,7 +52599,7 @@
         <v>6532</v>
       </c>
       <c r="B6532">
-        <v>0.8237152498342681</v>
+        <v>0.823715249834268</v>
       </c>
     </row>
     <row r="6533" spans="1:2">
@@ -52759,7 +52759,7 @@
         <v>6552</v>
       </c>
       <c r="B6552">
-        <v>0.4097174150431019</v>
+        <v>0.4097174150431018</v>
       </c>
     </row>
     <row r="6553" spans="1:2">
@@ -53383,7 +53383,7 @@
         <v>6630</v>
       </c>
       <c r="B6630">
-        <v>10.40118523789456</v>
+        <v>10.40118523789455</v>
       </c>
     </row>
     <row r="6631" spans="1:2">
@@ -53791,7 +53791,7 @@
         <v>6681</v>
       </c>
       <c r="B6681">
-        <v>0.579505307809581</v>
+        <v>0.5795053078095809</v>
       </c>
     </row>
     <row r="6682" spans="1:2">
@@ -53879,7 +53879,7 @@
         <v>6692</v>
       </c>
       <c r="B6692">
-        <v>0.3955364401598761</v>
+        <v>0.3955364401598759</v>
       </c>
     </row>
     <row r="6693" spans="1:2">
@@ -53887,7 +53887,7 @@
         <v>6693</v>
       </c>
       <c r="B6693">
-        <v>1.53130702063396</v>
+        <v>1.531307020633959</v>
       </c>
     </row>
     <row r="6694" spans="1:2">
@@ -53983,7 +53983,7 @@
         <v>6705</v>
       </c>
       <c r="B6705">
-        <v>31.49470332711828</v>
+        <v>31.49470332711827</v>
       </c>
     </row>
     <row r="6706" spans="1:2">
@@ -54047,7 +54047,7 @@
         <v>6713</v>
       </c>
       <c r="B6713">
-        <v>4.974640563024634</v>
+        <v>4.974640563024633</v>
       </c>
     </row>
     <row r="6714" spans="1:2">
@@ -54191,7 +54191,7 @@
         <v>6731</v>
       </c>
       <c r="B6731">
-        <v>23.14379354669296</v>
+        <v>23.14379354669295</v>
       </c>
     </row>
     <row r="6732" spans="1:2">
@@ -54199,7 +54199,7 @@
         <v>6732</v>
       </c>
       <c r="B6732">
-        <v>8.756133244161587</v>
+        <v>8.756133244161585</v>
       </c>
     </row>
     <row r="6733" spans="1:2">
@@ -54215,7 +54215,7 @@
         <v>6734</v>
       </c>
       <c r="B6734">
-        <v>4.692999001800042</v>
+        <v>4.692999001800041</v>
       </c>
     </row>
     <row r="6735" spans="1:2">
@@ -54279,7 +54279,7 @@
         <v>6742</v>
       </c>
       <c r="B6742">
-        <v>86.29790319394681</v>
+        <v>86.29790319394678</v>
       </c>
     </row>
     <row r="6743" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>155.5032879639828</v>
+        <v>155.5032879639827</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54559,7 +54559,7 @@
         <v>6777</v>
       </c>
       <c r="B6777">
-        <v>44.63284353347547</v>
+        <v>44.63284353347546</v>
       </c>
     </row>
     <row r="6778" spans="1:2">
@@ -54591,7 +54591,7 @@
         <v>6781</v>
       </c>
       <c r="B6781">
-        <v>0.5503372954583954</v>
+        <v>0.5503372954583953</v>
       </c>
     </row>
     <row r="6782" spans="1:2">
@@ -54711,7 +54711,7 @@
         <v>6796</v>
       </c>
       <c r="B6796">
-        <v>56.70927528807418</v>
+        <v>56.70927528807417</v>
       </c>
     </row>
     <row r="6797" spans="1:2">
@@ -54727,7 +54727,7 @@
         <v>6798</v>
       </c>
       <c r="B6798">
-        <v>81.82675281392159</v>
+        <v>81.82675281392157</v>
       </c>
     </row>
     <row r="6799" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>65.27931721481698</v>
+        <v>65.27931721481697</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -55263,7 +55263,7 @@
         <v>6865</v>
       </c>
       <c r="B6865">
-        <v>0.5207083995918106</v>
+        <v>0.5207083995918105</v>
       </c>
     </row>
     <row r="6866" spans="1:2">
@@ -55495,7 +55495,7 @@
         <v>6894</v>
       </c>
       <c r="B6894">
-        <v>85.20712209515315</v>
+        <v>85.20712209515312</v>
       </c>
     </row>
     <row r="6895" spans="1:2">
@@ -55511,7 +55511,7 @@
         <v>6896</v>
       </c>
       <c r="B6896">
-        <v>12.67204002647018</v>
+        <v>12.67204002647017</v>
       </c>
     </row>
     <row r="6897" spans="1:2">
@@ -55527,7 +55527,7 @@
         <v>6898</v>
       </c>
       <c r="B6898">
-        <v>0.4606534546334825</v>
+        <v>0.4606534546334823</v>
       </c>
     </row>
     <row r="6899" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>0.9983213770118594</v>
+        <v>0.9983213770118593</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55831,7 +55831,7 @@
         <v>6936</v>
       </c>
       <c r="B6936">
-        <v>47.05460675434962</v>
+        <v>47.05460675434961</v>
       </c>
     </row>
     <row r="6937" spans="1:2">
@@ -55855,7 +55855,7 @@
         <v>6939</v>
       </c>
       <c r="B6939">
-        <v>149.5263385873156</v>
+        <v>149.5263385873155</v>
       </c>
     </row>
     <row r="6940" spans="1:2">
@@ -55943,7 +55943,7 @@
         <v>6950</v>
       </c>
       <c r="B6950">
-        <v>1.116461155485323</v>
+        <v>1.116461155485322</v>
       </c>
     </row>
     <row r="6951" spans="1:2">
@@ -56143,7 +56143,7 @@
         <v>6975</v>
       </c>
       <c r="B6975">
-        <v>2.826934224894509</v>
+        <v>2.826934224894508</v>
       </c>
     </row>
     <row r="6976" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>76.71108060567235</v>
+        <v>76.71108060567234</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56423,7 +56423,7 @@
         <v>7010</v>
       </c>
       <c r="B7010">
-        <v>77.44463741544169</v>
+        <v>77.44463741544168</v>
       </c>
     </row>
     <row r="7011" spans="1:2">
@@ -57039,7 +57039,7 @@
         <v>7087</v>
       </c>
       <c r="B7087">
-        <v>74.36742081660144</v>
+        <v>74.36742081660142</v>
       </c>
     </row>
     <row r="7088" spans="1:2">
@@ -57055,7 +57055,7 @@
         <v>7089</v>
       </c>
       <c r="B7089">
-        <v>0.9717605539277087</v>
+        <v>0.9717605539277085</v>
       </c>
     </row>
     <row r="7090" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>1.068593569669727</v>
+        <v>1.068593569669726</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>63.5855424539776</v>
+        <v>63.58554245397759</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57863,7 +57863,7 @@
         <v>7190</v>
       </c>
       <c r="B7190">
-        <v>42.02078342577772</v>
+        <v>42.02078342577771</v>
       </c>
     </row>
     <row r="7191" spans="1:2">
@@ -57927,7 +57927,7 @@
         <v>7198</v>
       </c>
       <c r="B7198">
-        <v>48.26217666204983</v>
+        <v>48.26217666204982</v>
       </c>
     </row>
     <row r="7199" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>43.56168647143056</v>
+        <v>43.56168647143055</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58119,7 +58119,7 @@
         <v>7222</v>
       </c>
       <c r="B7222">
-        <v>126.8161465730325</v>
+        <v>126.8161465730324</v>
       </c>
     </row>
     <row r="7223" spans="1:2">
@@ -58135,7 +58135,7 @@
         <v>7224</v>
       </c>
       <c r="B7224">
-        <v>228.8141818247893</v>
+        <v>228.8141818247892</v>
       </c>
     </row>
     <row r="7225" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>697.6507425540908</v>
+        <v>697.6507425540906</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58191,7 +58191,7 @@
         <v>7231</v>
       </c>
       <c r="B7231">
-        <v>600.5790497581871</v>
+        <v>600.579049758187</v>
       </c>
     </row>
     <row r="7232" spans="1:2">
@@ -58287,7 +58287,7 @@
         <v>7243</v>
       </c>
       <c r="B7243">
-        <v>20.52996446220586</v>
+        <v>20.52996446220585</v>
       </c>
     </row>
     <row r="7244" spans="1:2">
@@ -58295,7 +58295,7 @@
         <v>7244</v>
       </c>
       <c r="B7244">
-        <v>18.22747558571713</v>
+        <v>18.22747558571712</v>
       </c>
     </row>
     <row r="7245" spans="1:2">
@@ -58319,7 +58319,7 @@
         <v>7247</v>
       </c>
       <c r="B7247">
-        <v>74.14972764908379</v>
+        <v>74.14972764908376</v>
       </c>
     </row>
     <row r="7248" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>83.8324723883121</v>
+        <v>83.83247238831208</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58575,7 +58575,7 @@
         <v>7279</v>
       </c>
       <c r="B7279">
-        <v>197.8251491291981</v>
+        <v>197.825149129198</v>
       </c>
     </row>
     <row r="7280" spans="1:2">
@@ -58647,7 +58647,7 @@
         <v>7288</v>
       </c>
       <c r="B7288">
-        <v>0.3084760247375402</v>
+        <v>0.3084760247375401</v>
       </c>
     </row>
     <row r="7289" spans="1:2">
@@ -58655,7 +58655,7 @@
         <v>7289</v>
       </c>
       <c r="B7289">
-        <v>0.5409279566911341</v>
+        <v>0.5409279566911339</v>
       </c>
     </row>
     <row r="7290" spans="1:2">
@@ -58847,7 +58847,7 @@
         <v>7313</v>
       </c>
       <c r="B7313">
-        <v>7.360422573269225</v>
+        <v>7.360422573269224</v>
       </c>
     </row>
     <row r="7314" spans="1:2">
@@ -58903,7 +58903,7 @@
         <v>7320</v>
       </c>
       <c r="B7320">
-        <v>90.5005418883505</v>
+        <v>90.50054188835048</v>
       </c>
     </row>
     <row r="7321" spans="1:2">
@@ -58927,7 +58927,7 @@
         <v>7323</v>
       </c>
       <c r="B7323">
-        <v>256.6707364464903</v>
+        <v>256.6707364464902</v>
       </c>
     </row>
     <row r="7324" spans="1:2">
@@ -58943,7 +58943,7 @@
         <v>7325</v>
       </c>
       <c r="B7325">
-        <v>401.6062344415913</v>
+        <v>401.6062344415912</v>
       </c>
     </row>
     <row r="7326" spans="1:2">
@@ -59127,7 +59127,7 @@
         <v>7348</v>
       </c>
       <c r="B7348">
-        <v>242.0620243823382</v>
+        <v>242.0620243823381</v>
       </c>
     </row>
     <row r="7349" spans="1:2">
@@ -59239,7 +59239,7 @@
         <v>7362</v>
       </c>
       <c r="B7362">
-        <v>0.1525083070985908</v>
+        <v>0.1525083070985907</v>
       </c>
     </row>
     <row r="7363" spans="1:2">
@@ -59295,7 +59295,7 @@
         <v>7369</v>
       </c>
       <c r="B7369">
-        <v>63.87128671667241</v>
+        <v>63.8712867166724</v>
       </c>
     </row>
     <row r="7370" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>92.01114725002654</v>
+        <v>92.01114725002651</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59383,7 +59383,7 @@
         <v>7380</v>
       </c>
       <c r="B7380">
-        <v>0.4886065703010015</v>
+        <v>0.4886065703010014</v>
       </c>
     </row>
     <row r="7381" spans="1:2">
@@ -59415,7 +59415,7 @@
         <v>7384</v>
       </c>
       <c r="B7384">
-        <v>0.7022371577736212</v>
+        <v>0.7022371577736209</v>
       </c>
     </row>
     <row r="7385" spans="1:2">
@@ -59607,7 +59607,7 @@
         <v>7408</v>
       </c>
       <c r="B7408">
-        <v>40.06859327659869</v>
+        <v>40.06859327659868</v>
       </c>
     </row>
     <row r="7409" spans="1:2">
@@ -59663,7 +59663,7 @@
         <v>7415</v>
       </c>
       <c r="B7415">
-        <v>78.90738427650433</v>
+        <v>78.90738427650432</v>
       </c>
     </row>
     <row r="7416" spans="1:2">
@@ -59759,7 +59759,7 @@
         <v>7427</v>
       </c>
       <c r="B7427">
-        <v>58.46870675370486</v>
+        <v>58.46870675370485</v>
       </c>
     </row>
     <row r="7428" spans="1:2">
@@ -59815,7 +59815,7 @@
         <v>7434</v>
       </c>
       <c r="B7434">
-        <v>62.9511052001939</v>
+        <v>62.95110520019389</v>
       </c>
     </row>
     <row r="7435" spans="1:2">
@@ -59871,7 +59871,7 @@
         <v>7441</v>
       </c>
       <c r="B7441">
-        <v>306.8981302653876</v>
+        <v>306.8981302653875</v>
       </c>
     </row>
     <row r="7442" spans="1:2">
@@ -60031,7 +60031,7 @@
         <v>7461</v>
       </c>
       <c r="B7461">
-        <v>18.63619978301021</v>
+        <v>18.6361997830102</v>
       </c>
     </row>
     <row r="7462" spans="1:2">
@@ -60167,7 +60167,7 @@
         <v>7478</v>
       </c>
       <c r="B7478">
-        <v>9.869264233434599</v>
+        <v>9.869264233434597</v>
       </c>
     </row>
     <row r="7479" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>9.679183339966508</v>
+        <v>9.679183339966507</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>6.962001874482363</v>
+        <v>6.962001874482362</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60279,7 +60279,7 @@
         <v>7492</v>
       </c>
       <c r="B7492">
-        <v>80.783683680222</v>
+        <v>80.78368368022198</v>
       </c>
     </row>
     <row r="7493" spans="1:2">
@@ -60311,7 +60311,7 @@
         <v>7496</v>
       </c>
       <c r="B7496">
-        <v>84.94065897609187</v>
+        <v>84.94065897609185</v>
       </c>
     </row>
     <row r="7497" spans="1:2">
@@ -60335,7 +60335,7 @@
         <v>7499</v>
       </c>
       <c r="B7499">
-        <v>16.30833066150237</v>
+        <v>16.30833066150236</v>
       </c>
     </row>
     <row r="7500" spans="1:2">
@@ -60583,7 +60583,7 @@
         <v>7530</v>
       </c>
       <c r="B7530">
-        <v>54.47208820734894</v>
+        <v>54.47208820734893</v>
       </c>
     </row>
     <row r="7531" spans="1:2">
@@ -60783,7 +60783,7 @@
         <v>7555</v>
       </c>
       <c r="B7555">
-        <v>43.84360322636046</v>
+        <v>43.84360322636045</v>
       </c>
     </row>
     <row r="7556" spans="1:2">
@@ -60815,7 +60815,7 @@
         <v>7559</v>
       </c>
       <c r="B7559">
-        <v>56.13189603480747</v>
+        <v>56.13189603480746</v>
       </c>
     </row>
     <row r="7560" spans="1:2">
@@ -60855,7 +60855,7 @@
         <v>7564</v>
       </c>
       <c r="B7564">
-        <v>260.5463078617479</v>
+        <v>260.5463078617478</v>
       </c>
     </row>
     <row r="7565" spans="1:2">
@@ -60959,7 +60959,7 @@
         <v>7577</v>
       </c>
       <c r="B7577">
-        <v>59.23973855718783</v>
+        <v>59.23973855718782</v>
       </c>
     </row>
     <row r="7578" spans="1:2">
@@ -61023,7 +61023,7 @@
         <v>7585</v>
       </c>
       <c r="B7585">
-        <v>254.1433826610968</v>
+        <v>254.1433826610967</v>
       </c>
     </row>
     <row r="7586" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>587.5119499716016</v>
+        <v>587.5119499716014</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>40.08492612558329</v>
+        <v>40.08492612558328</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61191,7 +61191,7 @@
         <v>7606</v>
       </c>
       <c r="B7606">
-        <v>60.72027483029722</v>
+        <v>60.72027483029721</v>
       </c>
     </row>
     <row r="7607" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>66.23639344435256</v>
+        <v>66.23639344435254</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61255,7 +61255,7 @@
         <v>7614</v>
       </c>
       <c r="B7614">
-        <v>345.2083471320948</v>
+        <v>345.2083471320947</v>
       </c>
     </row>
     <row r="7615" spans="1:2">
@@ -61263,7 +61263,7 @@
         <v>7615</v>
       </c>
       <c r="B7615">
-        <v>284.6463892768825</v>
+        <v>284.6463892768824</v>
       </c>
     </row>
     <row r="7616" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>218.0466111902729</v>
+        <v>218.0466111902728</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61311,7 +61311,7 @@
         <v>7621</v>
       </c>
       <c r="B7621">
-        <v>197.3684565296521</v>
+        <v>197.368456529652</v>
       </c>
     </row>
     <row r="7622" spans="1:2">
@@ -61375,7 +61375,7 @@
         <v>7629</v>
       </c>
       <c r="B7629">
-        <v>84.16015511663934</v>
+        <v>84.16015511663933</v>
       </c>
     </row>
     <row r="7630" spans="1:2">
@@ -61391,7 +61391,7 @@
         <v>7631</v>
       </c>
       <c r="B7631">
-        <v>181.1132713703006</v>
+        <v>181.1132713703005</v>
       </c>
     </row>
     <row r="7632" spans="1:2">
@@ -61527,7 +61527,7 @@
         <v>7648</v>
       </c>
       <c r="B7648">
-        <v>172.7482326351014</v>
+        <v>172.7482326351013</v>
       </c>
     </row>
     <row r="7649" spans="1:2">
@@ -61695,7 +61695,7 @@
         <v>7669</v>
       </c>
       <c r="B7669">
-        <v>73.98988670459789</v>
+        <v>73.98988670459788</v>
       </c>
     </row>
     <row r="7670" spans="1:2">
@@ -61703,7 +61703,7 @@
         <v>7670</v>
       </c>
       <c r="B7670">
-        <v>58.85896014878632</v>
+        <v>58.85896014878631</v>
       </c>
     </row>
     <row r="7671" spans="1:2">
@@ -61751,7 +61751,7 @@
         <v>7676</v>
       </c>
       <c r="B7676">
-        <v>97.18177027802477</v>
+        <v>97.18177027802476</v>
       </c>
     </row>
     <row r="7677" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>96.58030058538012</v>
+        <v>96.58030058538009</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -62215,7 +62215,7 @@
         <v>7734</v>
       </c>
       <c r="B7734">
-        <v>726.7028160023821</v>
+        <v>726.702816002382</v>
       </c>
     </row>
     <row r="7735" spans="1:2">
@@ -62223,7 +62223,7 @@
         <v>7735</v>
       </c>
       <c r="B7735">
-        <v>674.971352305971</v>
+        <v>674.9713523059709</v>
       </c>
     </row>
     <row r="7736" spans="1:2">
@@ -62239,7 +62239,7 @@
         <v>7737</v>
       </c>
       <c r="B7737">
-        <v>512.193308484817</v>
+        <v>512.1933084848168</v>
       </c>
     </row>
     <row r="7738" spans="1:2">
@@ -62271,7 +62271,7 @@
         <v>7741</v>
       </c>
       <c r="B7741">
-        <v>445.6176794517931</v>
+        <v>445.617679451793</v>
       </c>
     </row>
     <row r="7742" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>383.7560394614293</v>
+        <v>383.7560394614292</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62375,7 +62375,7 @@
         <v>7754</v>
       </c>
       <c r="B7754">
-        <v>545.7498837973333</v>
+        <v>545.7498837973332</v>
       </c>
     </row>
     <row r="7755" spans="1:2">
@@ -62391,7 +62391,7 @@
         <v>7756</v>
       </c>
       <c r="B7756">
-        <v>607.718817094951</v>
+        <v>607.7188170949509</v>
       </c>
     </row>
     <row r="7757" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>431.7475650192753</v>
+        <v>431.7475650192752</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62519,7 +62519,7 @@
         <v>7772</v>
       </c>
       <c r="B7772">
-        <v>284.5447522406747</v>
+        <v>284.5447522406746</v>
       </c>
     </row>
     <row r="7773" spans="1:2">
@@ -62575,7 +62575,7 @@
         <v>7779</v>
       </c>
       <c r="B7779">
-        <v>555.7934869064653</v>
+        <v>555.7934869064652</v>
       </c>
     </row>
     <row r="7780" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>603.8095718173512</v>
+        <v>603.8095718173511</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62919,7 +62919,7 @@
         <v>7822</v>
       </c>
       <c r="B7822">
-        <v>472.7810272843276</v>
+        <v>472.7810272843275</v>
       </c>
     </row>
     <row r="7823" spans="1:2">
@@ -62943,7 +62943,7 @@
         <v>7825</v>
       </c>
       <c r="B7825">
-        <v>571.113130696202</v>
+        <v>571.1131306962019</v>
       </c>
     </row>
     <row r="7826" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>632.9494786559294</v>
+        <v>632.9494786559293</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>454.9647699304426</v>
+        <v>454.9647699304425</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63127,7 +63127,7 @@
         <v>7848</v>
       </c>
       <c r="B7848">
-        <v>578.4387636856849</v>
+        <v>578.4387636856848</v>
       </c>
     </row>
     <row r="7849" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>279.2234613917006</v>
+        <v>279.2234613917005</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63231,7 +63231,7 @@
         <v>7861</v>
       </c>
       <c r="B7861">
-        <v>223.4220322600877</v>
+        <v>223.4220322600876</v>
       </c>
     </row>
     <row r="7862" spans="1:2">
@@ -63255,7 +63255,7 @@
         <v>7864</v>
       </c>
       <c r="B7864">
-        <v>191.076660936151</v>
+        <v>191.0766609361509</v>
       </c>
     </row>
     <row r="7865" spans="1:2">
@@ -63351,7 +63351,7 @@
         <v>7876</v>
       </c>
       <c r="B7876">
-        <v>595.1288955735137</v>
+        <v>595.1288955735135</v>
       </c>
     </row>
     <row r="7877" spans="1:2">
@@ -63391,7 +63391,7 @@
         <v>7881</v>
       </c>
       <c r="B7881">
-        <v>517.7276912860017</v>
+        <v>517.7276912860016</v>
       </c>
     </row>
     <row r="7882" spans="1:2">
@@ -63503,7 +63503,7 @@
         <v>7895</v>
       </c>
       <c r="B7895">
-        <v>281.2740208350063</v>
+        <v>281.2740208350062</v>
       </c>
     </row>
     <row r="7896" spans="1:2">
@@ -63615,7 +63615,7 @@
         <v>7909</v>
       </c>
       <c r="B7909">
-        <v>187.3025214073741</v>
+        <v>187.302521407374</v>
       </c>
     </row>
     <row r="7910" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>88.42639022643256</v>
+        <v>88.42639022643255</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63759,7 +63759,7 @@
         <v>7927</v>
       </c>
       <c r="B7927">
-        <v>374.9195959605433</v>
+        <v>374.9195959605432</v>
       </c>
     </row>
     <row r="7928" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>80.44655820302907</v>
+        <v>80.44655820302906</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>65.36638862040327</v>
+        <v>65.36638862040326</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>322.5856368228521</v>
+        <v>322.585636822852</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -63919,7 +63919,7 @@
         <v>7947</v>
       </c>
       <c r="B7947">
-        <v>337.8118495654636</v>
+        <v>337.8118495654635</v>
       </c>
     </row>
     <row r="7948" spans="1:2">
@@ -63935,7 +63935,7 @@
         <v>7949</v>
       </c>
       <c r="B7949">
-        <v>378.708242505734</v>
+        <v>378.7082425057339</v>
       </c>
     </row>
     <row r="7950" spans="1:2">
@@ -64063,7 +64063,7 @@
         <v>7965</v>
       </c>
       <c r="B7965">
-        <v>57.25018478128988</v>
+        <v>57.25018478128987</v>
       </c>
     </row>
     <row r="7966" spans="1:2">
@@ -64111,7 +64111,7 @@
         <v>7971</v>
       </c>
       <c r="B7971">
-        <v>371.6184730881658</v>
+        <v>371.6184730881657</v>
       </c>
     </row>
     <row r="7972" spans="1:2">
@@ -64151,7 +64151,7 @@
         <v>7976</v>
       </c>
       <c r="B7976">
-        <v>643.0198684579951</v>
+        <v>643.0198684579949</v>
       </c>
     </row>
     <row r="7977" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>382.3441990397821</v>
+        <v>382.344199039782</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64167,7 +64167,7 @@
         <v>7978</v>
       </c>
       <c r="B7978">
-        <v>234.0384427142833</v>
+        <v>234.0384427142832</v>
       </c>
     </row>
     <row r="7979" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>186.9745163009043</v>
+        <v>186.9745163009042</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64319,7 +64319,7 @@
         <v>7997</v>
       </c>
       <c r="B7997">
-        <v>392.6867346083487</v>
+        <v>392.6867346083486</v>
       </c>
     </row>
     <row r="7998" spans="1:2">
@@ -64335,7 +64335,7 @@
         <v>7999</v>
       </c>
       <c r="B7999">
-        <v>567.7652043789503</v>
+        <v>567.7652043789502</v>
       </c>
     </row>
     <row r="8000" spans="1:2">
@@ -64351,7 +64351,7 @@
         <v>8001</v>
       </c>
       <c r="B8001">
-        <v>258.9279109720522</v>
+        <v>258.9279109720521</v>
       </c>
     </row>
     <row r="8002" spans="1:2">
@@ -64711,7 +64711,7 @@
         <v>8046</v>
       </c>
       <c r="B8046">
-        <v>388.5674160102365</v>
+        <v>388.5674160102363</v>
       </c>
     </row>
     <row r="8047" spans="1:2">
@@ -64727,7 +64727,7 @@
         <v>8048</v>
       </c>
       <c r="B8048">
-        <v>403.1494879169742</v>
+        <v>403.1494879169741</v>
       </c>
     </row>
     <row r="8049" spans="1:2">
@@ -64823,7 +64823,7 @@
         <v>8060</v>
       </c>
       <c r="B8060">
-        <v>58.22726603992449</v>
+        <v>58.22726603992448</v>
       </c>
     </row>
     <row r="8061" spans="1:2">
@@ -65143,7 +65143,7 @@
         <v>8100</v>
       </c>
       <c r="B8100">
-        <v>0.6567481658149043</v>
+        <v>0.6567481658149041</v>
       </c>
     </row>
     <row r="8101" spans="1:2">
@@ -65327,7 +65327,7 @@
         <v>8123</v>
       </c>
       <c r="B8123">
-        <v>1.550734992857859</v>
+        <v>1.550734992857858</v>
       </c>
     </row>
     <row r="8124" spans="1:2">
@@ -65511,7 +65511,7 @@
         <v>8146</v>
       </c>
       <c r="B8146">
-        <v>2.600756474964993</v>
+        <v>2.600756474964992</v>
       </c>
     </row>
     <row r="8147" spans="1:2">
@@ -65663,7 +65663,7 @@
         <v>8165</v>
       </c>
       <c r="B8165">
-        <v>0.5350712543616296</v>
+        <v>0.5350712543616294</v>
       </c>
     </row>
     <row r="8166" spans="1:2">
@@ -65687,7 +65687,7 @@
         <v>8168</v>
       </c>
       <c r="B8168">
-        <v>0.4219666121749915</v>
+        <v>0.4219666121749914</v>
       </c>
     </row>
     <row r="8169" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>27.80881628021343</v>
+        <v>27.80881628021342</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66015,7 +66015,7 @@
         <v>8209</v>
       </c>
       <c r="B8209">
-        <v>121.6393104390146</v>
+        <v>121.6393104390145</v>
       </c>
     </row>
     <row r="8210" spans="1:2">
@@ -66079,7 +66079,7 @@
         <v>8217</v>
       </c>
       <c r="B8217">
-        <v>94.74122120357244</v>
+        <v>94.74122120357242</v>
       </c>
     </row>
     <row r="8218" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>46.60740965645627</v>
+        <v>46.60740965645626</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66135,7 +66135,7 @@
         <v>8224</v>
       </c>
       <c r="B8224">
-        <v>61.60986266104987</v>
+        <v>61.60986266104986</v>
       </c>
     </row>
     <row r="8225" spans="1:2">
@@ -66207,7 +66207,7 @@
         <v>8233</v>
       </c>
       <c r="B8233">
-        <v>354.2159148124551</v>
+        <v>354.215914812455</v>
       </c>
     </row>
     <row r="8234" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>409.5327802887454</v>
+        <v>409.5327802887453</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66311,7 +66311,7 @@
         <v>8246</v>
       </c>
       <c r="B8246">
-        <v>84.45791529191928</v>
+        <v>84.45791529191926</v>
       </c>
     </row>
     <row r="8247" spans="1:2">
@@ -66591,7 +66591,7 @@
         <v>8281</v>
       </c>
       <c r="B8281">
-        <v>368.6717610228414</v>
+        <v>368.6717610228413</v>
       </c>
     </row>
     <row r="8282" spans="1:2">
@@ -66671,7 +66671,7 @@
         <v>8291</v>
       </c>
       <c r="B8291">
-        <v>318.5420184740261</v>
+        <v>318.542018474026</v>
       </c>
     </row>
     <row r="8292" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>283.6253590852902</v>
+        <v>283.6253590852901</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66815,7 +66815,7 @@
         <v>8309</v>
       </c>
       <c r="B8309">
-        <v>374.0850761779552</v>
+        <v>374.0850761779551</v>
       </c>
     </row>
     <row r="8310" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>92.33635645878749</v>
+        <v>92.33635645878746</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67223,7 +67223,7 @@
         <v>8360</v>
       </c>
       <c r="B8360">
-        <v>678.2499087083715</v>
+        <v>678.2499087083714</v>
       </c>
     </row>
     <row r="8361" spans="1:2">
@@ -67279,7 +67279,7 @@
         <v>8367</v>
       </c>
       <c r="B8367">
-        <v>88.06239599641516</v>
+        <v>88.06239599641515</v>
       </c>
     </row>
     <row r="8368" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>374.4791394965392</v>
+        <v>374.4791394965391</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67575,7 +67575,7 @@
         <v>8404</v>
       </c>
       <c r="B8404">
-        <v>370.836852628056</v>
+        <v>370.8368526280559</v>
       </c>
     </row>
     <row r="8405" spans="1:2">
@@ -67799,7 +67799,7 @@
         <v>8432</v>
       </c>
       <c r="B8432">
-        <v>558.4662361648491</v>
+        <v>558.466236164849</v>
       </c>
     </row>
     <row r="8433" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>336.4753284007524</v>
+        <v>336.4753284007523</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -67887,7 +67887,7 @@
         <v>8443</v>
       </c>
       <c r="B8443">
-        <v>361.9958372189669</v>
+        <v>361.9958372189668</v>
       </c>
     </row>
     <row r="8444" spans="1:2">
@@ -67919,7 +67919,7 @@
         <v>8447</v>
       </c>
       <c r="B8447">
-        <v>236.1701242210905</v>
+        <v>236.1701242210904</v>
       </c>
     </row>
     <row r="8448" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>426.2700966137987</v>
+        <v>426.2700966137986</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -67991,7 +67991,7 @@
         <v>8456</v>
       </c>
       <c r="B8456">
-        <v>528.9604887487098</v>
+        <v>528.9604887487097</v>
       </c>
     </row>
     <row r="8457" spans="1:2">
@@ -68095,7 +68095,7 @@
         <v>8469</v>
       </c>
       <c r="B8469">
-        <v>32.5343728367694</v>
+        <v>32.53437283676939</v>
       </c>
     </row>
     <row r="8470" spans="1:2">
@@ -68343,7 +68343,7 @@
         <v>8500</v>
       </c>
       <c r="B8500">
-        <v>232.2860244386078</v>
+        <v>232.2860244386077</v>
       </c>
     </row>
     <row r="8501" spans="1:2">
@@ -68511,7 +68511,7 @@
         <v>8521</v>
       </c>
       <c r="B8521">
-        <v>63.57241287144557</v>
+        <v>63.57241287144556</v>
       </c>
     </row>
     <row r="8522" spans="1:2">
@@ -68519,7 +68519,7 @@
         <v>8522</v>
       </c>
       <c r="B8522">
-        <v>71.07397640543682</v>
+        <v>71.07397640543681</v>
       </c>
     </row>
     <row r="8523" spans="1:2">
@@ -68535,7 +68535,7 @@
         <v>8524</v>
       </c>
       <c r="B8524">
-        <v>49.71683476244542</v>
+        <v>49.7168347624454</v>
       </c>
     </row>
     <row r="8525" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>760.3773231008558</v>
+        <v>760.3773231008557</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68855,7 +68855,7 @@
         <v>8564</v>
       </c>
       <c r="B8564">
-        <v>683.5498053715235</v>
+        <v>683.5498053715231</v>
       </c>
     </row>
     <row r="8565" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>659.6765316332088</v>
+        <v>659.6765316332087</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -69015,7 +69015,7 @@
         <v>8584</v>
       </c>
       <c r="B8584">
-        <v>641.3130227288314</v>
+        <v>641.3130227288312</v>
       </c>
     </row>
     <row r="8585" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>465.9348292069909</v>
+        <v>465.9348292069907</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69103,7 +69103,7 @@
         <v>8595</v>
       </c>
       <c r="B8595">
-        <v>636.2756884092164</v>
+        <v>636.2756884092163</v>
       </c>
     </row>
     <row r="8596" spans="1:2">
@@ -69575,7 +69575,7 @@
         <v>8654</v>
       </c>
       <c r="B8654">
-        <v>249.0058737297569</v>
+        <v>249.0058737297568</v>
       </c>
     </row>
     <row r="8655" spans="1:2">
@@ -69663,7 +69663,7 @@
         <v>8665</v>
       </c>
       <c r="B8665">
-        <v>434.077714233464</v>
+        <v>434.0777142334639</v>
       </c>
     </row>
     <row r="8666" spans="1:2">
@@ -69671,7 +69671,7 @@
         <v>8666</v>
       </c>
       <c r="B8666">
-        <v>459.881183139506</v>
+        <v>459.8811831395059</v>
       </c>
     </row>
     <row r="8667" spans="1:2">
@@ -69751,7 +69751,7 @@
         <v>8676</v>
       </c>
       <c r="B8676">
-        <v>365.7682769357197</v>
+        <v>365.7682769357196</v>
       </c>
     </row>
     <row r="8677" spans="1:2">
@@ -69831,7 +69831,7 @@
         <v>8686</v>
       </c>
       <c r="B8686">
-        <v>259.7232471567714</v>
+        <v>259.7232471567713</v>
       </c>
     </row>
     <row r="8687" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>535.6195316607574</v>
+        <v>535.6195316607573</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>478.2042189334442</v>
+        <v>478.2042189334441</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>420.861148217161</v>
+        <v>420.8611482171609</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -69991,7 +69991,7 @@
         <v>8706</v>
       </c>
       <c r="B8706">
-        <v>512.1098418530062</v>
+        <v>512.1098418530061</v>
       </c>
     </row>
     <row r="8707" spans="1:2">
@@ -70079,7 +70079,7 @@
         <v>8717</v>
       </c>
       <c r="B8717">
-        <v>486.5751483965204</v>
+        <v>486.5751483965203</v>
       </c>
     </row>
     <row r="8718" spans="1:2">
@@ -70111,7 +70111,7 @@
         <v>8721</v>
       </c>
       <c r="B8721">
-        <v>579.5264382314688</v>
+        <v>579.5264382314687</v>
       </c>
     </row>
     <row r="8722" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>634.7109821338034</v>
+        <v>634.7109821338033</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
@@ -70199,7 +70199,7 @@
         <v>8732</v>
       </c>
       <c r="B8732">
-        <v>630.4016655813271</v>
+        <v>630.4016655813269</v>
       </c>
     </row>
     <row r="8733" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>620.6895844311287</v>
+        <v>620.6895844311285</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>680.1665933012167</v>
+        <v>680.1665933012166</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70223,7 +70223,7 @@
         <v>8735</v>
       </c>
       <c r="B8735">
-        <v>650.9033914766736</v>
+        <v>650.9033914766735</v>
       </c>
     </row>
     <row r="8736" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>680.6889338134228</v>
+        <v>680.6889338134226</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70239,7 +70239,7 @@
         <v>8737</v>
       </c>
       <c r="B8737">
-        <v>727.4337937870113</v>
+        <v>727.4337937870112</v>
       </c>
     </row>
     <row r="8738" spans="1:2">
@@ -70327,7 +70327,7 @@
         <v>8748</v>
       </c>
       <c r="B8748">
-        <v>734.9940301429425</v>
+        <v>734.9940301429424</v>
       </c>
     </row>
     <row r="8749" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>705.9721137045293</v>
+        <v>705.9721137045292</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70391,7 +70391,7 @@
         <v>8756</v>
       </c>
       <c r="B8756">
-        <v>600.7173792884354</v>
+        <v>600.7173792884353</v>
       </c>
     </row>
     <row r="8757" spans="1:2">
